--- a/parsed_output/JGBF_DATA_20250723.xlsx
+++ b/parsed_output/JGBF_DATA_20250723.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ6"/>
+  <dimension ref="A1:DI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,372 +498,497 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INSTITUTIONS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.FOREIGNERS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.FOREIGNERS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.JGB10YEARFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.PROPRIETARY.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.PROPRIETARY.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.PROPRIETARY.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.PROPRIETARY.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.BROKERAGE.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.BROKERAGE.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.BROKERAGE.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.BROKERAGE.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.TOTAL.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.TOTAL.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.TOTAL.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.TOTAL.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INSTITUTIONS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INSTITUTIONS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INSTITUTIONS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INSTITUTIONS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INDIVIDUALS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INDIVIDUALS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INDIVIDUALS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.INDIVIDUALS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.FOREIGNERS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.FOREIGNERS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.FOREIGNERS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.FOREIGNERS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.SECURITIES_COS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.SECURITIES_COS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.SECURITIES_COS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI10YEARJGBFUTURESCASHSETTLED.TRADINGVALUE.SECURITIES_COS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.PROPRIETARY.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.PROPRIETARY.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.PROPRIETARY.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.PROPRIETARY.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.BROKERAGE.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.BROKERAGE.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.BROKERAGE.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.BROKERAGE.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.TOTAL.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.TOTAL.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.TOTAL.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.MINI20YEARJGBFUTURES.TRADINGVALUE.TOTAL.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INSTITUTIONS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INSTITUTIONS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.FOREIGNERS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.FOREIGNERS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.MINI20YEARJGBFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.PROPRIETARY.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.PROPRIETARY.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.PROPRIETARY.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.PROPRIETARY.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.BROKERAGE.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.BROKERAGE.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.BROKERAGE.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.BROKERAGE.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.TOTAL.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.TOTAL.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.TOTAL.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>JGBF.TOTAL_PROPRIETARY_BROKERAGE.3MONTHTONAFUTURES.TRADINGVALUE.TOTAL.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INSTITUTIONS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INSTITUTIONS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INSTITUTIONS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INDIVIDUALS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.INDIVIDUALS.PURCHASES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.FOREIGNERS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.FOREIGNERS.SALES.BALANCE.W</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.VALUE.W</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.FOREIGNERS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.VALUE.W</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.SECURITIES_COS.SALES.BALANCE.W</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.VALUE.W</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>JGBF.BROKERAGE_BREAKDOWN.3MONTHTONAFUTURES.TRADINGVALUE.SECURITIES_COS.PURCHASES.BALANCE.W</t>
         </is>
       </c>
     </row>
@@ -940,372 +1065,497 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
+          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Value</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Balance</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Value</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Balance</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Value</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="U2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Balance</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Value</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Balance</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Value</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Balance</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Sales, Value</t>
-        </is>
-      </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Sales, Balance</t>
+          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Value</t>
         </is>
       </c>
       <c r="AA2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Purchases, Value</t>
+          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Balance</t>
         </is>
       </c>
       <c r="AB2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Purchases, Balance</t>
+          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Value</t>
         </is>
       </c>
       <c r="AC2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Value</t>
+          <t>Trading by Type of Investors, JGB(10-year) Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Balance</t>
         </is>
       </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Value</t>
         </is>
       </c>
       <c r="AE2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Balance</t>
         </is>
       </c>
       <c r="AF2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Value</t>
         </is>
       </c>
       <c r="AG2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Balance</t>
         </is>
       </c>
       <c r="AH2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Value</t>
         </is>
       </c>
       <c r="AI2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Balance</t>
         </is>
       </c>
       <c r="AJ2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Value</t>
         </is>
       </c>
       <c r="AK2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Balance</t>
         </is>
       </c>
       <c r="AL2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Value</t>
         </is>
       </c>
       <c r="AM2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Balance</t>
         </is>
       </c>
       <c r="AN2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Value</t>
         </is>
       </c>
       <c r="AO2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Balance</t>
         </is>
       </c>
       <c r="AP2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Institutions, Sales, Value</t>
         </is>
       </c>
       <c r="AQ2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Institutions, Sales, Balance</t>
         </is>
       </c>
       <c r="AR2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Institutions, Purchases, Value</t>
         </is>
       </c>
       <c r="AS2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Institutions, Purchases, Balance</t>
         </is>
       </c>
       <c r="AT2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Individuals, Sales, Value</t>
         </is>
       </c>
       <c r="AU2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Individuals, Sales, Balance</t>
         </is>
       </c>
       <c r="AV2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Individuals, Purchases, Value</t>
         </is>
       </c>
       <c r="AW2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Individuals, Purchases, Balance</t>
         </is>
       </c>
       <c r="AX2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Balance</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Foreigners, Sales, Value</t>
         </is>
       </c>
       <c r="AY2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Sales, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Foreigners, Sales, Balance</t>
         </is>
       </c>
       <c r="AZ2" s="1" t="inlineStr">
         <is>
-          <t>Trading by Type of Investors, mini-10-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Purchases, Value</t>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Value</t>
         </is>
       </c>
       <c r="BA2" s="1" t="inlineStr">
         <is>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Value</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Value</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-10-year JGB Futures (Cash-Settled), Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Value</t>
         </is>
       </c>
-      <c r="BB2" s="1" t="inlineStr">
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Value</t>
         </is>
       </c>
-      <c r="BC2" s="1" t="inlineStr">
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Value</t>
         </is>
       </c>
-      <c r="BD2" s="1" t="inlineStr">
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Value</t>
         </is>
       </c>
-      <c r="BE2" s="1" t="inlineStr">
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Value</t>
         </is>
       </c>
-      <c r="BF2" s="1" t="inlineStr">
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Value</t>
         </is>
       </c>
-      <c r="BG2" s="1" t="inlineStr">
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BR2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Value</t>
         </is>
       </c>
-      <c r="BH2" s="1" t="inlineStr">
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Value</t>
         </is>
       </c>
-      <c r="BI2" s="1" t="inlineStr">
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Value</t>
         </is>
       </c>
-      <c r="BJ2" s="1" t="inlineStr">
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Value</t>
         </is>
       </c>
-      <c r="BK2" s="1" t="inlineStr">
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Value</t>
         </is>
       </c>
-      <c r="BL2" s="1" t="inlineStr">
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Value</t>
         </is>
       </c>
-      <c r="BM2" s="1" t="inlineStr">
-        <is>
-          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Sales, Value</t>
-        </is>
-      </c>
-      <c r="BN2" s="1" t="inlineStr">
-        <is>
-          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Purchases, Value</t>
-        </is>
-      </c>
-      <c r="BO2" s="1" t="inlineStr">
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Value</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Balance</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Value</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, mini-20-year JGB Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Value</t>
         </is>
       </c>
-      <c r="BP2" s="1" t="inlineStr">
+      <c r="CI2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Sales, Balance</t>
         </is>
       </c>
-      <c r="BQ2" s="1" t="inlineStr">
+      <c r="CJ2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Value</t>
         </is>
       </c>
-      <c r="BR2" s="1" t="inlineStr">
+      <c r="CK2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Proprietary, Purchases, Balance</t>
         </is>
       </c>
-      <c r="BS2" s="1" t="inlineStr">
+      <c r="CL2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Value</t>
         </is>
       </c>
-      <c r="BT2" s="1" t="inlineStr">
+      <c r="CM2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Sales, Balance</t>
         </is>
       </c>
-      <c r="BU2" s="1" t="inlineStr">
+      <c r="CN2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Value</t>
         </is>
       </c>
-      <c r="BV2" s="1" t="inlineStr">
+      <c r="CO2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Brokerage, Purchases, Balance</t>
         </is>
       </c>
-      <c r="BW2" s="1" t="inlineStr">
+      <c r="CP2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Value</t>
         </is>
       </c>
-      <c r="BX2" s="1" t="inlineStr">
+      <c r="CQ2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Sales, Balance</t>
         </is>
       </c>
-      <c r="BY2" s="1" t="inlineStr">
+      <c r="CR2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Value</t>
         </is>
       </c>
-      <c r="BZ2" s="1" t="inlineStr">
+      <c r="CS2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Total, Proprietary ＆ Brokerage, Trading Value, Total, Purchases, Balance</t>
         </is>
       </c>
-      <c r="CA2" s="1" t="inlineStr">
+      <c r="CT2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Value</t>
         </is>
       </c>
-      <c r="CB2" s="1" t="inlineStr">
+      <c r="CU2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Institutions, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="CV2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Value</t>
         </is>
       </c>
-      <c r="CC2" s="1" t="inlineStr">
+      <c r="CW2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Institutions, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="CX2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Value</t>
         </is>
       </c>
-      <c r="CD2" s="1" t="inlineStr">
+      <c r="CY2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Individuals, Sales, Balance</t>
+        </is>
+      </c>
+      <c r="CZ2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Value</t>
         </is>
       </c>
-      <c r="CE2" s="1" t="inlineStr">
+      <c r="DA2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Individuals, Purchases, Balance</t>
+        </is>
+      </c>
+      <c r="DB2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Value</t>
         </is>
       </c>
-      <c r="CF2" s="1" t="inlineStr">
+      <c r="DC2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Foreigners, Sales, Balance</t>
         </is>
       </c>
-      <c r="CG2" s="1" t="inlineStr">
+      <c r="DD2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Value</t>
         </is>
       </c>
-      <c r="CH2" s="1" t="inlineStr">
+      <c r="DE2" s="1" t="inlineStr">
         <is>
           <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Foreigners, Purchases, Balance</t>
         </is>
       </c>
-      <c r="CI2" s="1" t="inlineStr">
-        <is>
-          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Sales, Value</t>
-        </is>
-      </c>
-      <c r="CJ2" s="1" t="inlineStr">
-        <is>
-          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities_Cos, Purchases, Value</t>
+      <c r="DF2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Value</t>
+        </is>
+      </c>
+      <c r="DG2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Sales, Balance</t>
+        </is>
+      </c>
+      <c r="DH2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Value</t>
+        </is>
+      </c>
+      <c r="DI2" s="1" t="inlineStr">
+        <is>
+          <t>Trading by Type of Investors, 3-Month TONA Futures, Breakdown of Brokerage, Trading Value, Securities Cos., Purchases, Balance</t>
         </is>
       </c>
     </row>
@@ -1368,332 +1618,301 @@
           <t>226,241,778</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
         <is>
           <t>269,539,201</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>43,297,423</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>55,324</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
         <is>
           <t>152,918</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>97,594</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>4,189,909,836</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
         <is>
           <t>4,207,953,833</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>18,043,997</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>401,243</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>-67,869</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>333,374</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>69,304,000</t>
-        </is>
-      </c>
+      <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
           <t>-41,553,000</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>27,751,000</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>2,998,422,500</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>3,414,735,000</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
           <t>416,312,500</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>3,067,726,500</t>
-        </is>
-      </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3,442,486,000</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
         <is>
           <t>374,759,500</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>69,572,000</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>222,490,500</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>152,918,500</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>124,597,500</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>278,207,500</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
         <is>
           <t>153,610,000</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>2,804,253,000</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>2,914,037,000</t>
-        </is>
-      </c>
       <c r="AX3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
           <t>109,784,000</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BB3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
+      <c r="CE3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
+      <c r="CH3" t="inlineStr">
         <is>
           <t>12,097,259,375</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr">
+      <c r="CI3" t="inlineStr"/>
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>26,669,657,500</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="CK3" t="inlineStr">
         <is>
           <t>14,572,398,125</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="CL3" t="inlineStr">
         <is>
           <t>498,313,964,375</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="CM3" t="inlineStr">
         <is>
           <t>-11,360,580,625</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="CN3" t="inlineStr">
         <is>
           <t>486,953,383,750</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr">
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr">
         <is>
           <t>510,411,223,750</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr"/>
-      <c r="BY3" t="inlineStr">
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr">
         <is>
           <t>513,623,041,250</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CS3" t="inlineStr">
         <is>
           <t>3,211,817,500</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA3" t="inlineStr"/>
+      <c r="DB3" t="inlineStr">
         <is>
           <t>498,313,964,375</t>
         </is>
       </c>
-      <c r="CF3" t="inlineStr">
+      <c r="DC3" t="inlineStr">
         <is>
           <t>-11,360,580,625</t>
         </is>
       </c>
-      <c r="CG3" t="inlineStr">
+      <c r="DD3" t="inlineStr">
         <is>
           <t>486,953,383,750</t>
         </is>
       </c>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="DE3" t="inlineStr"/>
+      <c r="DF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG3" t="inlineStr"/>
+      <c r="DH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1754,332 +1973,301 @@
           <t>266,990,454</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
         <is>
           <t>271,338,102</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>4,347,648</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>207,215</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>-69,118</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>138,097</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6,586,377,132</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>-20,275,179</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>6,566,101,953</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>5,029,638</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>-68,623</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>4,961,015</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>13,801,000</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>165,640,000</t>
-        </is>
-      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
           <t>151,839,000</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>3,084,198,000</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>3,124,093,500</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
           <t>39,895,500</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>3,097,999,000</t>
-        </is>
-      </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3,289,733,500</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>191,734,500</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
           <t>27,678,000</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>27,678,000</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>828,344,500</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
         <is>
           <t>-579,726,500</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>248,618,000</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2,255,853,500</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>2,847,797,500</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
           <t>591,944,000</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BB4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
+      <c r="CE4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr"/>
+      <c r="CH4" t="inlineStr">
         <is>
           <t>24,387,571,250</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr">
+      <c r="CI4" t="inlineStr"/>
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>40,909,036,250</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>16,521,465,000</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>374,484,952,500</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>-9,052,830,000</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>365,432,122,500</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr">
+      <c r="CO4" t="inlineStr"/>
+      <c r="CP4" t="inlineStr">
         <is>
           <t>398,872,523,750</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr"/>
-      <c r="BY4" t="inlineStr">
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr">
         <is>
           <t>406,341,158,750</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
         <is>
           <t>7,468,635,000</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA4" t="inlineStr"/>
+      <c r="DB4" t="inlineStr">
         <is>
           <t>374,484,952,500</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="DC4" t="inlineStr">
         <is>
           <t>-9,052,830,000</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="DD4" t="inlineStr">
         <is>
           <t>365,432,122,500</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="DE4" t="inlineStr"/>
+      <c r="DF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG4" t="inlineStr"/>
+      <c r="DH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2140,332 +2328,301 @@
           <t>24,632,919</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
         <is>
           <t>35,746,423</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>11,113,504</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>27,635</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
         <is>
           <t>55,271</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>27,636</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>1,166,511,546</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>-56,650,354</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>1,109,861,192</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>41,526</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>124,304</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>82,778</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>27,666,000</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>27,666,000</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>884,559,500</t>
-        </is>
-      </c>
       <c r="AH5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
           <t>-27,663,500</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>856,896,000</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>884,559,500</t>
-        </is>
-      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>884,562,000</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>2,500</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>41,529,000</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>-80,000</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>41,449,000</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>621,798,500</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t>-580,312,000</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>41,486,500</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>221,232,000</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>773,960,500</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
           <t>552,728,500</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BB5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
+      <c r="CE5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr"/>
+      <c r="CG5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr">
         <is>
           <t>10,273,810,625</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
         <is>
           <t>-137,253,125</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>10,136,557,500</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr">
+      <c r="CK5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr">
         <is>
           <t>228,237,803,750</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr">
+      <c r="CM5" t="inlineStr"/>
+      <c r="CN5" t="inlineStr">
         <is>
           <t>230,490,903,750</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="CO5" t="inlineStr">
         <is>
           <t>2,253,100,000</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="CP5" t="inlineStr">
         <is>
           <t>238,511,614,375</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr"/>
-      <c r="BY5" t="inlineStr">
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr">
         <is>
           <t>240,627,461,250</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
+      <c r="CS5" t="inlineStr">
         <is>
           <t>2,115,846,875</t>
         </is>
       </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
+      <c r="CT5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU5" t="inlineStr"/>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr"/>
+      <c r="CX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY5" t="inlineStr"/>
+      <c r="CZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA5" t="inlineStr"/>
+      <c r="DB5" t="inlineStr">
         <is>
           <t>228,237,803,750</t>
         </is>
       </c>
-      <c r="CF5" t="inlineStr"/>
-      <c r="CG5" t="inlineStr">
+      <c r="DC5" t="inlineStr"/>
+      <c r="DD5" t="inlineStr">
         <is>
           <t>230,490,903,750</t>
         </is>
       </c>
-      <c r="CH5" t="inlineStr">
+      <c r="DE5" t="inlineStr">
         <is>
           <t>2,253,100,000</t>
         </is>
       </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="DF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG5" t="inlineStr"/>
+      <c r="DH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2526,332 +2683,301 @@
           <t>38,667,319</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
         <is>
           <t>38,891,314</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>223,995</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
         <is>
           <t>41,235</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>41,235</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>1,173,050,034</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1,181,143,749</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>8,093,715</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>41,364</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>674,248</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>632,884</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>41,213,000</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>165,094,000</t>
-        </is>
-      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
           <t>123,881,000</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>1,017,297,500</t>
-        </is>
-      </c>
       <c r="AH6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
           <t>-110,140,000</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>907,157,500</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>1,058,510,500</t>
-        </is>
-      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>1,072,251,500</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>13,741,000</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>13,769,000</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>-13,769,000</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>659,663,000</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
         <is>
           <t>-494,646,000</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>165,017,000</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>343,865,500</t>
-        </is>
-      </c>
-      <c r="AW6" t="inlineStr">
-        <is>
-          <t>742,140,500</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
           <t>398,275,000</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="BB6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO6" t="inlineStr">
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr">
         <is>
           <t>108,269,580,625</t>
         </is>
       </c>
-      <c r="BP6" t="inlineStr">
+      <c r="CI6" t="inlineStr">
         <is>
           <t>-95,879,078,750</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr">
+      <c r="CJ6" t="inlineStr">
         <is>
           <t>12,390,501,875</t>
         </is>
       </c>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr">
+      <c r="CK6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr">
         <is>
           <t>260,266,453,125</t>
         </is>
       </c>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr">
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="inlineStr">
         <is>
           <t>337,740,782,500</t>
         </is>
       </c>
-      <c r="BV6" t="inlineStr">
+      <c r="CO6" t="inlineStr">
         <is>
           <t>77,474,329,375</t>
         </is>
       </c>
-      <c r="BW6" t="inlineStr">
+      <c r="CP6" t="inlineStr">
         <is>
           <t>368,536,033,750</t>
         </is>
       </c>
-      <c r="BX6" t="inlineStr">
+      <c r="CQ6" t="inlineStr">
         <is>
           <t>-18,404,749,375</t>
         </is>
       </c>
-      <c r="BY6" t="inlineStr">
+      <c r="CR6" t="inlineStr">
         <is>
           <t>350,131,284,375</t>
         </is>
       </c>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE6" t="inlineStr">
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr"/>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr"/>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DA6" t="inlineStr"/>
+      <c r="DB6" t="inlineStr">
         <is>
           <t>260,266,453,125</t>
         </is>
       </c>
-      <c r="CF6" t="inlineStr"/>
-      <c r="CG6" t="inlineStr">
+      <c r="DC6" t="inlineStr"/>
+      <c r="DD6" t="inlineStr">
         <is>
           <t>337,740,782,500</t>
         </is>
       </c>
-      <c r="CH6" t="inlineStr">
+      <c r="DE6" t="inlineStr">
         <is>
           <t>77,474,329,375</t>
         </is>
       </c>
-      <c r="CI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr"/>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parsed_output/JGBF_DATA_20250723.xlsx
+++ b/parsed_output/JGBF_DATA_20250723.xlsx
@@ -1679,7 +1679,7 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69,304,000</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -1689,19 +1689,19 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27,751,000</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,998,422,500</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,414,735,000</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
@@ -1711,13 +1711,13 @@
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,067,726,500</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,442,486,000</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -1727,13 +1727,13 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69,572,000</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>222,490,500</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1743,13 +1743,13 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>124,597,500</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>278,207,500</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1759,13 +1759,13 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,804,253,000</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,914,037,000</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
@@ -1785,33 +1785,89 @@
         </is>
       </c>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="inlineStr">
         <is>
@@ -2034,13 +2090,13 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,801,000</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165,640,000</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -2050,13 +2106,13 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,084,198,000</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,124,093,500</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -2066,13 +2122,13 @@
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,097,999,000</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,289,733,500</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -2088,7 +2144,7 @@
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27,678,000</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -2098,7 +2154,7 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>828,344,500</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -2108,19 +2164,19 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>248,618,000</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,255,853,500</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,847,797,500</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
@@ -2140,33 +2196,89 @@
         </is>
       </c>
       <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CA4" t="inlineStr"/>
-      <c r="CB4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CE4" t="inlineStr"/>
-      <c r="CF4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="inlineStr">
         <is>
@@ -2395,7 +2507,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27,666,000</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -2405,7 +2517,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>884,559,500</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -2415,19 +2527,19 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>856,896,000</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>884,559,500</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>884,562,000</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -2437,7 +2549,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41,529,000</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -2447,13 +2559,13 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41,449,000</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>621,798,500</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
@@ -2463,19 +2575,19 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41,486,500</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>221,232,000</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>773,960,500</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
@@ -2495,33 +2607,89 @@
         </is>
       </c>
       <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CA5" t="inlineStr"/>
-      <c r="CB5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CC5" t="inlineStr"/>
-      <c r="CD5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CE5" t="inlineStr"/>
-      <c r="CF5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="inlineStr">
         <is>
@@ -2744,13 +2912,13 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41,213,000</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165,094,000</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -2760,7 +2928,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,017,297,500</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -2770,19 +2938,19 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>907,157,500</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,058,510,500</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,072,251,500</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -2792,7 +2960,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,769,000</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -2808,7 +2976,7 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>659,663,000</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
@@ -2818,19 +2986,19 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>165,017,000</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>343,865,500</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>742,140,500</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
@@ -2850,33 +3018,89 @@
         </is>
       </c>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CE6" t="inlineStr"/>
-      <c r="CF6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="inlineStr">
         <is>
